--- a/luoye接口文档.xlsx
+++ b/luoye接口文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>投不投1.0界面</t>
   </si>
@@ -344,10 +344,13 @@
     <t>落叶接口统计</t>
   </si>
   <si>
-    <t>提交（邮箱，验证码，密码），提交完毕，进入登陆页面</t>
-  </si>
-  <si>
     <t>提交（邮箱，密码）</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>退出接口</t>
   </si>
   <si>
     <t>视频</t>
@@ -505,10 +508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -549,6 +552,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -557,6 +567,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,36 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,23 +657,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,22 +689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +746,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,19 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,61 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,13 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,26 +1009,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1048,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1073,36 +1106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1111,10 +1114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,137 +1126,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,30 +1293,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1384,6 +1378,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1782,13 +1779,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1840,10 +1837,10 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -1851,16 +1848,16 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
@@ -1868,12 +1865,12 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
@@ -1881,14 +1878,14 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2">
@@ -1898,30 +1895,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="51" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52" t="s">
+    <row r="7" s="49" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2">
@@ -1929,14 +1926,14 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
@@ -1944,14 +1941,14 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
@@ -1959,14 +1956,14 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2">
@@ -1974,16 +1971,16 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
@@ -1991,12 +1988,12 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
@@ -2004,12 +2001,12 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="2">
@@ -2017,12 +2014,12 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="2">
@@ -2030,12 +2027,12 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2">
@@ -2043,12 +2040,12 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:5">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
@@ -2056,12 +2053,12 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2">
@@ -2069,16 +2066,16 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2">
@@ -2086,12 +2083,12 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2">
@@ -2099,12 +2096,12 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:5">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="29" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="2">
@@ -2112,14 +2109,14 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:5">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2">
@@ -2127,14 +2124,14 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:5">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2">
@@ -2142,12 +2139,12 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="2">
@@ -2155,8 +2152,8 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="3:4">
-      <c r="C25" s="54"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" ht="30" customHeight="1"/>
     <row r="27" ht="30" customHeight="1"/>
@@ -2212,19 +2209,19 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:11">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -2240,14 +2237,14 @@
       <c r="E2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="26" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2261,39 +2258,39 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="2">
         <f>IF(LEN(F4),1,0)</f>
         <v>0</v>
@@ -2301,355 +2298,355 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="45"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="35"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="G9" s="2">
         <f t="shared" ref="G9" si="0">IF(LEN(F9),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="2">
         <f>IF(LEN(F18),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="35"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="13"/>
       <c r="G19" s="2">
         <f>IF(LEN(F19),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="35"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="44"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="2">
         <f>IF(LEN(F20),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="2">
         <f>IF(LEN(F21),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="2">
         <f>IF(LEN(F22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="5:6">
       <c r="E23" s="2"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" customHeight="1" spans="5:5">
       <c r="E24" s="2"/>
@@ -2715,13 +2712,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2773,10 +2770,10 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="2">
@@ -2784,16 +2781,16 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="2">
@@ -2801,12 +2798,12 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="2">
@@ -2814,12 +2811,12 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2">
@@ -2827,14 +2824,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="2">
@@ -2842,12 +2839,12 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2">
@@ -2868,14 +2865,14 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="2">
@@ -2883,12 +2880,12 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="39"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="2">
@@ -2896,14 +2893,14 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="2">
@@ -2911,12 +2908,12 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="2">
@@ -2924,12 +2921,12 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="2">
@@ -2937,12 +2934,12 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="29" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="2">
@@ -2950,12 +2947,12 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="2">
@@ -2963,12 +2960,12 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="2">
@@ -2976,12 +2973,12 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="2">
@@ -2989,12 +2986,12 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="2">
@@ -3002,12 +2999,12 @@
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2">
@@ -3060,10 +3057,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="30" customHeight="1"/>
@@ -3094,7 +3091,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="28"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -3118,734 +3115,794 @@
         <v>55</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49.2" customHeight="1" spans="1:11">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>20181101</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="17"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>20181101</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>20181101</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11">
+        <v>20181102</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>85</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="11">
+        <v>20181102</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11">
+        <v>20181102</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>20181101</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11">
+        <v>20181105</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="11">
+        <v>20181105</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="11">
+        <v>20181105</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="11">
+        <v>20181105</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="11">
+        <v>20181106</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="11">
+        <v>20181106</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="11">
+        <v>20181106</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="11">
+        <v>20181106</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="11">
+        <v>20181107</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="11">
+        <v>20181107</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="11">
+        <v>20181107</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="11">
+        <v>20181107</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A14" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="D30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
+      <c r="E30" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15">
+        <v>20181108</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A19" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A34" s="17"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A35" s="17"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A36" s="17"/>
-      <c r="B36" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A37" s="17"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A39" s="17"/>
-      <c r="B39" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A40" s="17"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="5"/>
-    </row>
+      <c r="E39" s="23"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="5:7">
+      <c r="E40" s="3"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1"/>
     <row r="42" s="2" customFormat="1" customHeight="1"/>
-    <row r="43" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A40"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A39"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/luoye接口文档.xlsx
+++ b/luoye接口文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>投不投1.0界面</t>
   </si>
@@ -356,102 +356,96 @@
     <t>视频</t>
   </si>
   <si>
+    <t>视频列表/分页</t>
+  </si>
+  <si>
     <t>视频列表接口</t>
   </si>
   <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>上传图片接口</t>
+  </si>
+  <si>
+    <t>ftp地址</t>
+  </si>
+  <si>
+    <t>添加视频</t>
+  </si>
+  <si>
+    <t>添加视频保存接口</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>编辑保存接口</t>
+  </si>
+  <si>
+    <t>编辑标题与类型</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>类型接口</t>
+  </si>
+  <si>
+    <t>编辑下类型select</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>删除接口</t>
+  </si>
+  <si>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>会员列表/搜索</t>
+  </si>
+  <si>
+    <t>列表接口</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>添加接口</t>
+  </si>
+  <si>
+    <t>冻结/解冻</t>
+  </si>
+  <si>
+    <t>冻结/解冻接口</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>banner列表/分页/搜索</t>
+  </si>
+  <si>
+    <t>banner列表接口</t>
+  </si>
+  <si>
+    <t>编辑接口</t>
+  </si>
+  <si>
+    <t>分类管理</t>
+  </si>
+  <si>
+    <t>一级分类/二级分类列表</t>
+  </si>
+  <si>
+    <t>一级分类/二级分类列表接口</t>
+  </si>
+  <si>
     <t>分页接口</t>
   </si>
   <si>
-    <t>上传图片</t>
-  </si>
-  <si>
-    <t>上传图片接口</t>
-  </si>
-  <si>
-    <t>ftp地址</t>
-  </si>
-  <si>
-    <t>添加视频</t>
-  </si>
-  <si>
-    <t>添加视频保存接口</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>编辑保存接口</t>
-  </si>
-  <si>
-    <t>编辑标题与类型</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>类型接口</t>
-  </si>
-  <si>
-    <t>编辑下类型select</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>删除接口</t>
-  </si>
-  <si>
-    <t>会员</t>
-  </si>
-  <si>
-    <t>列表接口</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <t>搜索接口</t>
-  </si>
-  <si>
-    <t>传参（状态 || 邮箱/昵称）</t>
-  </si>
-  <si>
-    <t>添加</t>
-  </si>
-  <si>
-    <t>添加接口</t>
-  </si>
-  <si>
-    <t>编辑接口</t>
-  </si>
-  <si>
-    <t>冻结/解冻</t>
-  </si>
-  <si>
-    <t>冻结/解冻接口</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>banner列表</t>
-  </si>
-  <si>
-    <t>banner列表接口</t>
-  </si>
-  <si>
-    <t>传参（开始时间，结束时间）</t>
-  </si>
-  <si>
-    <t>分类管理</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类列表</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类列表接口</t>
-  </si>
-  <si>
     <t>一级分类/二级分类添加</t>
   </si>
   <si>
@@ -467,31 +461,10 @@
     <t>一级分类/二级分类编辑保存接口</t>
   </si>
   <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>传参（会员编号 || 类型）</t>
-  </si>
-  <si>
-    <t>开启不限次数观看</t>
-  </si>
-  <si>
-    <t>开启不限次数观看保存接口</t>
-  </si>
-  <si>
-    <t>传参 （开始时间，结束时间）</t>
+    <t>列表/分页/搜索</t>
   </si>
   <si>
     <t>手工发放次数保存接口</t>
-  </si>
-  <si>
-    <t>搜索会员账号</t>
-  </si>
-  <si>
-    <t>搜索会员账号接口</t>
   </si>
   <si>
     <t>域名</t>
@@ -509,9 +482,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -551,6 +524,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -565,8 +546,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +600,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,62 +630,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,7 +655,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,13 +707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +749,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,109 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,25 +839,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,6 +982,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1029,45 +1011,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1041,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1106,6 +1064,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1114,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,133 +1099,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3057,10 +3030,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="30" customHeight="1"/>
@@ -3197,10 +3170,10 @@
         <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="13"/>
@@ -3216,12 +3189,14 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
@@ -3235,55 +3210,55 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="13"/>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
       <c r="K8" s="11">
-        <v>20181102</v>
+        <v>20181101</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>114</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="11">
-        <v>20181101</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="17"/>
@@ -3297,17 +3272,15 @@
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>116</v>
+      <c r="C11" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -3316,76 +3289,84 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="18"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
       <c r="K12" s="11">
-        <v>20181105</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A13" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
       <c r="K13" s="11">
-        <v>20181105</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
       <c r="K14" s="11">
-        <v>20181106</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="C15" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
@@ -3394,17 +3375,17 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="11">
-        <v>20181106</v>
+        <v>20181107</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
-        <v>113</v>
+      <c r="C16" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
@@ -3413,17 +3394,17 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="11">
-        <v>20181106</v>
+        <v>20181107</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="15" t="s">
-        <v>129</v>
+      <c r="C17" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
@@ -3432,21 +3413,17 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="11">
-        <v>20181106</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>133</v>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
@@ -3455,80 +3432,82 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="11">
-        <v>20181107</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="11">
-        <v>20181107</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="11">
-        <v>20181107</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="11">
-        <v>20181107</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -3538,371 +3517,191 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
       <c r="K23" s="11">
-        <v>20181108</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="11">
-        <v>20181108</v>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>20181102</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="18"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="11">
-        <v>20181108</v>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15">
+        <v>20181102</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="B26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="18"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="11">
-        <v>20181108</v>
+      <c r="K26" s="15">
+        <v>20181109</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="11">
-        <v>20181108</v>
+      <c r="K27" s="15">
+        <v>20181109</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="11">
-        <v>20181108</v>
+      <c r="K28" s="15">
+        <v>20181109</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="11">
-        <v>20181108</v>
+      <c r="K29" s="15">
+        <v>20181109</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="11">
-        <v>20181108</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A31" s="11"/>
-      <c r="B31" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15">
-        <v>20181108</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15">
-        <v>20181108</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A33" s="11"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15">
+      <c r="K30" s="15">
         <v>20181109</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A34" s="11"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A35" s="11"/>
-      <c r="B35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A36" s="11"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A37" s="11"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A38" s="11"/>
-      <c r="B38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A39" s="11"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15">
-        <v>20181109</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E40" s="3"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1"/>
-    <row r="42" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="5:7">
+      <c r="E31" s="3"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A39"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A30"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/luoye接口文档.xlsx
+++ b/luoye接口文档.xlsx
@@ -362,15 +362,6 @@
     <t>视频列表接口</t>
   </si>
   <si>
-    <t>上传图片</t>
-  </si>
-  <si>
-    <t>上传图片接口</t>
-  </si>
-  <si>
-    <t>ftp地址</t>
-  </si>
-  <si>
     <t>添加视频</t>
   </si>
   <si>
@@ -395,6 +386,9 @@
     <t>编辑下类型select</t>
   </si>
   <si>
+    <t>视频启用/禁用</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
@@ -432,6 +426,12 @@
   </si>
   <si>
     <t>编辑接口</t>
+  </si>
+  <si>
+    <t>启用/禁用</t>
+  </si>
+  <si>
+    <t>图片上传</t>
   </si>
   <si>
     <t>分类管理</t>
@@ -482,9 +482,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -524,21 +524,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -562,8 +578,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,28 +639,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -616,46 +648,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,7 +707,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,13 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +815,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,97 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,56 +986,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1058,9 +1008,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,6 +1070,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,133 +1099,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3030,10 +3030,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="30" customHeight="1"/>
@@ -3180,9 +3180,11 @@
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
       <c r="K6" s="11">
-        <v>20181102</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:11">
@@ -3194,28 +3196,30 @@
       <c r="D7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="13"/>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
       <c r="K7" s="11">
-        <v>20181102</v>
+        <v>20181101</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="16"/>
       <c r="F8" s="13"/>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
@@ -3224,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="11">
-        <v>20181101</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:11">
@@ -3243,9 +3247,11 @@
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
       <c r="K9" s="11">
-        <v>20181105</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:11">
@@ -3254,52 +3260,52 @@
       <c r="C10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="13"/>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
       <c r="K10" s="11">
-        <v>20181105</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
       <c r="K11" s="11">
-        <v>20181105</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A12" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
@@ -3317,10 +3323,10 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -3338,10 +3344,10 @@
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
@@ -3357,136 +3363,142 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A15" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="18"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
       <c r="K15" s="11">
-        <v>20181107</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
       <c r="K16" s="11">
-        <v>20181107</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
       <c r="K17" s="11">
-        <v>20181108</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>120</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
       <c r="K18" s="11">
-        <v>20181108</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
       <c r="K19" s="11">
-        <v>20181108</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
       <c r="K20" s="11">
-        <v>20181108</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="C21" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
       <c r="H21" s="15"/>
@@ -3500,14 +3512,14 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -3517,117 +3529,119 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="15">
-        <v>1</v>
-      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="11">
-        <v>20181102</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
-        <v>20181102</v>
+      <c r="J24" s="15"/>
+      <c r="K24" s="11">
+        <v>20181108</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A25" s="11"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15">
         <v>1</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="11">
         <v>20181102</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A26" s="11"/>
       <c r="B26" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="23"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
       <c r="K26" s="15">
-        <v>20181109</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A27" s="11"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="15"/>
       <c r="G27" s="18"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
       <c r="K27" s="15">
-        <v>20181109</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A28" s="11"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="C28" s="15" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="15"/>
@@ -3641,9 +3655,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A29" s="11"/>
-      <c r="B29" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
         <v>145</v>
       </c>
@@ -3664,10 +3676,10 @@
       <c r="A30" s="11"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="15"/>
@@ -3679,12 +3691,52 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E31" s="3"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1"/>
-    <row r="33" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="5:7">
+      <c r="E33" s="3"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:K1"/>
@@ -3693,15 +3745,15 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A30"/>
+    <mergeCell ref="A15:A32"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/luoye接口文档.xlsx
+++ b/luoye接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="25695" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tbt1.0.ui" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>投不投1.0界面</t>
   </si>
@@ -347,12 +347,21 @@
     <t>提交（邮箱，密码）</t>
   </si>
   <si>
+    <t>Admin Controller =&gt; /admin/login</t>
+  </si>
+  <si>
     <t>退出</t>
   </si>
   <si>
     <t>退出接口</t>
   </si>
   <si>
+    <t>Admin Controller =&gt; /admin/logout</t>
+  </si>
+  <si>
+    <t>Admin Controller =&gt; /admin/password</t>
+  </si>
+  <si>
     <t>视频</t>
   </si>
   <si>
@@ -362,10 +371,13 @@
     <t>视频列表接口</t>
   </si>
   <si>
-    <t>添加视频</t>
-  </si>
-  <si>
-    <t>添加视频保存接口</t>
+    <t>Video Controller =&gt; POST /video/list</t>
+  </si>
+  <si>
+    <t>视频上传</t>
+  </si>
+  <si>
+    <t>Video Controller =&gt; POST /video/upload</t>
   </si>
   <si>
     <t>编辑</t>
@@ -377,6 +389,9 @@
     <t>编辑标题与类型</t>
   </si>
   <si>
+    <t>Video Controller =&gt; POST /video/edit</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -386,15 +401,30 @@
     <t>编辑下类型select</t>
   </si>
   <si>
+    <t>Video Controller =&gt; GET /video/category</t>
+  </si>
+  <si>
     <t>视频启用/禁用</t>
   </si>
   <si>
+    <t>Video Controller =&gt; /video/disable/{videoId}</t>
+  </si>
+  <si>
+    <t>视频是否推荐</t>
+  </si>
+  <si>
+    <t>Video Controller =&gt; /video/spread/{videoId}</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
     <t>删除接口</t>
   </si>
   <si>
+    <t>Video Controller =&gt; GET /video/remove/{videoId}</t>
+  </si>
+  <si>
     <t>会员</t>
   </si>
   <si>
@@ -404,18 +434,27 @@
     <t>列表接口</t>
   </si>
   <si>
+    <t>User Controller =&gt; /user/list</t>
+  </si>
+  <si>
     <t>添加</t>
   </si>
   <si>
     <t>添加接口</t>
   </si>
   <si>
+    <t>Admin Controller =&gt; /admin/add</t>
+  </si>
+  <si>
     <t>冻结/解冻</t>
   </si>
   <si>
     <t>冻结/解冻接口</t>
   </si>
   <si>
+    <t>User Controller =&gt;  /user/disable/{uid}</t>
+  </si>
+  <si>
     <t>运营</t>
   </si>
   <si>
@@ -425,46 +464,94 @@
     <t>banner列表接口</t>
   </si>
   <si>
+    <t>Banner Controller =&gt; /banner/list</t>
+  </si>
+  <si>
+    <t>Banner Controller =&gt; /banner/add</t>
+  </si>
+  <si>
     <t>编辑接口</t>
   </si>
   <si>
+    <t>Banner Controller =&gt; /banner/edit</t>
+  </si>
+  <si>
     <t>启用/禁用</t>
   </si>
   <si>
+    <t>Banner Controller =&gt; GET /banner/disable/{bannerId}</t>
+  </si>
+  <si>
     <t>图片上传</t>
   </si>
   <si>
+    <t>Banner Controller =&gt; POST /banner/icon</t>
+  </si>
+  <si>
+    <t>Banner Controller =&gt; GET /banner/remove/{bannerId}</t>
+  </si>
+  <si>
     <t>分类管理</t>
   </si>
   <si>
-    <t>一级分类/二级分类列表</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类列表接口</t>
-  </si>
-  <si>
-    <t>分页接口</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类添加</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类添加接口</t>
+    <t>一级分类/二级分类列表/分页</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt;  /category/list</t>
+  </si>
+  <si>
+    <t>新增分类</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>一级分类/二级分类编辑</t>
-  </si>
-  <si>
-    <t>一级分类/二级分类编辑保存接口</t>
+    <t>Category Controller =&gt; POST /category/add</t>
+  </si>
+  <si>
+    <t>编辑分类</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt; POST /category/edit</t>
+  </si>
+  <si>
+    <t>是否禁用</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt; GET /category/disable/{categoryId}</t>
+  </si>
+  <si>
+    <t>是否推荐</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt; GET /category/spread/{categoryId}</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt; POST /category/icon</t>
+  </si>
+  <si>
+    <t>父级分类</t>
+  </si>
+  <si>
+    <t>Category Controller =&gt;  /category/parentCategory/{parentGrade}</t>
   </si>
   <si>
     <t>列表/分页/搜索</t>
   </si>
   <si>
+    <t>Invite Controller =&gt; /invite/list</t>
+  </si>
+  <si>
+    <t>Harvest Controller =&gt; /harvest/list</t>
+  </si>
+  <si>
     <t>手工发放次数保存接口</t>
+  </si>
+  <si>
+    <t>Harvest Controller =&gt;  /harvest/grant</t>
   </si>
   <si>
     <t>域名</t>
@@ -481,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -524,8 +611,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -540,47 +649,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,21 +672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,15 +687,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,15 +716,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,73 +794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +854,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,25 +920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,43 +950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,8 +1013,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -938,9 +1029,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -961,9 +1050,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -982,11 +1069,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,26 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,26 +1158,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,137 +1186,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,7 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1281,37 +1368,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,27 +1410,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,7 +1470,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,13 +1842,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1813,7 +1903,7 @@
       <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -1821,16 +1911,16 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
@@ -1838,12 +1928,12 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
@@ -1851,14 +1941,14 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2">
@@ -1868,30 +1958,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="49" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50" t="s">
+    <row r="7" s="50" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2">
@@ -1899,14 +1989,14 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
@@ -1914,14 +2004,14 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
@@ -1929,14 +2019,14 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2">
@@ -1944,16 +2034,16 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
@@ -1961,12 +2051,12 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
@@ -1974,12 +2064,12 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="2">
@@ -1987,12 +2077,12 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="2">
@@ -2000,12 +2090,12 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2">
@@ -2013,12 +2103,12 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
@@ -2026,12 +2116,12 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2">
@@ -2039,16 +2129,16 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2">
@@ -2056,12 +2146,12 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2">
@@ -2069,12 +2159,12 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:5">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="2">
@@ -2082,14 +2172,14 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:5">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2">
@@ -2097,14 +2187,14 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:5">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2">
@@ -2112,12 +2202,12 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:5">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="2">
@@ -2125,8 +2215,8 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="3:4">
-      <c r="C25" s="52"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" ht="30" customHeight="1"/>
     <row r="27" ht="30" customHeight="1"/>
@@ -2182,19 +2272,19 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -2210,14 +2300,14 @@
       <c r="E2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2231,29 +2321,29 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2263,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="2">
         <f>IF(LEN(F4),1,0)</f>
         <v>0</v>
@@ -2271,34 +2361,34 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="43"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2308,22 +2398,22 @@
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2333,40 +2423,40 @@
         <v>18</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="32"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2380,13 +2470,13 @@
         <f t="shared" ref="G9" si="0">IF(LEN(F9),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -2399,15 +2489,15 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2421,13 +2511,13 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="11" t="s">
         <v>70</v>
       </c>
@@ -2439,14 +2529,14 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="12"/>
@@ -2454,14 +2544,14 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="12"/>
@@ -2469,14 +2559,14 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="12"/>
@@ -2484,14 +2574,14 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="12"/>
@@ -2499,14 +2589,14 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="30" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="12"/>
@@ -2514,19 +2604,19 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="13"/>
@@ -2534,16 +2624,16 @@
         <f>IF(LEN(F18),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="20"/>
@@ -2552,74 +2642,74 @@
         <f>IF(LEN(F19),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="2">
         <f>IF(LEN(F20),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="2">
         <f>IF(LEN(F21),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="2">
         <f>IF(LEN(F22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="5:6">
       <c r="E23" s="2"/>
-      <c r="F23" s="48"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" customHeight="1" spans="5:5">
       <c r="E24" s="2"/>
@@ -2685,13 +2775,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2746,7 +2836,7 @@
       <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="2">
@@ -2754,16 +2844,16 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="2">
@@ -2771,12 +2861,12 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="2">
@@ -2784,12 +2874,12 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="2">
@@ -2797,14 +2887,14 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="2">
@@ -2812,12 +2902,12 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="30" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2">
@@ -2838,14 +2928,14 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="2">
@@ -2853,12 +2943,12 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="2">
@@ -2866,14 +2956,14 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="2">
@@ -2881,12 +2971,12 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="2">
@@ -2894,12 +2984,12 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="2">
@@ -2907,12 +2997,12 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="2">
@@ -2920,12 +3010,12 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="2">
@@ -2933,12 +3023,12 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="2">
@@ -2946,12 +3036,12 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="2">
@@ -2959,12 +3049,12 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="2">
@@ -2972,12 +3062,12 @@
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2">
@@ -3030,10 +3120,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6666666666667" defaultRowHeight="30" customHeight="1"/>
@@ -3041,9 +3131,9 @@
     <col min="1" max="2" width="11.4416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.6666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.4416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.4416666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.44166666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.21666666666667" style="2" customWidth="1"/>
@@ -3064,7 +3154,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="25"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -3088,7 +3178,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -3110,7 +3200,9 @@
         <v>102</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15">
@@ -3124,14 +3216,16 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15">
@@ -3145,14 +3239,16 @@
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15">
@@ -3164,20 +3260,22 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15">
@@ -3191,14 +3289,14 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="16"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15">
@@ -3212,16 +3310,18 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15">
@@ -3235,16 +3335,18 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15">
@@ -3258,12 +3360,14 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="16"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15">
@@ -3276,61 +3380,65 @@
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="C11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15">
         <v>1</v>
       </c>
       <c r="K11" s="11">
-        <v>20181104</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15">
         <v>1</v>
       </c>
       <c r="K12" s="11">
-        <v>20181102</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15">
@@ -3344,14 +3452,16 @@
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15">
@@ -3362,42 +3472,46 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15">
         <v>1</v>
       </c>
       <c r="K15" s="11">
-        <v>20181104</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>123</v>
+      <c r="A16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15">
@@ -3411,14 +3525,16 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15">
@@ -3432,12 +3548,16 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15">
@@ -3451,12 +3571,14 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15">
@@ -3470,14 +3592,14 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15">
@@ -3489,241 +3611,263 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
       <c r="K21" s="11">
-        <v>20181108</v>
+        <v>20181104</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="C22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
       <c r="K22" s="11">
-        <v>20181108</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>137</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="20" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
       <c r="K23" s="11">
-        <v>20181108</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>140</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="21"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
       <c r="K24" s="11">
-        <v>20181108</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>159</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15">
         <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>20181102</v>
+        <v>20181105</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A26" s="11"/>
-      <c r="B26" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15">
         <v>1</v>
       </c>
-      <c r="K26" s="15">
-        <v>20181102</v>
+      <c r="K26" s="11">
+        <v>20181105</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A27" s="11"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15">
         <v>1</v>
       </c>
-      <c r="K27" s="15">
-        <v>20181102</v>
+      <c r="K27" s="11">
+        <v>20181105</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15">
-        <v>20181109</v>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>20181105</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A29" s="11"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>81</v>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <v>20181109</v>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>20181102</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="C30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
       <c r="K30" s="15">
-        <v>20181109</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A31" s="11"/>
-      <c r="B31" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="E31" s="24"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
       <c r="K31" s="15">
-        <v>20181109</v>
+        <v>20181102</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="15" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="E32" s="24"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -3731,29 +3875,107 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E33" s="3"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1"/>
-    <row r="35" s="2" customFormat="1" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="5:7">
+      <c r="E37" s="3"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A36"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
